--- a/bao_cao_10_11_12_2022.xlsx
+++ b/bao_cao_10_11_12_2022.xlsx
@@ -213,9 +213,6 @@
     <t>20/11/2022</t>
   </si>
   <si>
-    <t>Giao tiếp 1 số loại sensor thông dụng</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21/11/2022</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t xml:space="preserve">  11/12/2022</t>
+  </si>
+  <si>
+    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11</t>
   </si>
 </sst>
 </file>
@@ -775,6 +775,87 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -790,12 +871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,81 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1121,19 +1121,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1142,11 +1142,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1160,48 +1160,48 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1230,10 +1230,10 @@
       <c r="C10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="43" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="63"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1263,10 +1263,10 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="70">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1288,8 +1288,8 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1309,8 +1309,8 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1330,10 +1330,10 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68">
+      <c r="A15" s="50">
         <v>2</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1355,8 +1355,8 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1376,8 +1376,8 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1397,8 +1397,8 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1418,8 +1418,8 @@
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="A20" s="38">
         <v>3</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1464,8 +1464,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+      <c r="A22" s="38">
         <v>4</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -1510,10 +1510,10 @@
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="36" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>50</v>
@@ -1531,16 +1531,16 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -1556,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
@@ -1580,13 +1580,13 @@
       <c r="A26" s="15"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
@@ -1640,16 +1640,16 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="61"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="61"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2621,6 +2621,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2636,16 +2646,6 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
